--- a/data/trans_dic/iP30KDA1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA1_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,74; 96,7</t>
+          <t>89,6; 98,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,72; 98,85</t>
+          <t>85,13; 97,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,42; 97,16</t>
+          <t>90,04; 97,23</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>91,82%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,98; 95,15</t>
+          <t>86,87; 94,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,2; 94,59</t>
+          <t>88,1; 95,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,95; 93,92</t>
+          <t>89,13; 94,04</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>90,98%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,38; 94,43</t>
+          <t>86,94; 94,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,33; 94,66</t>
+          <t>85,76; 94,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,28; 93,66</t>
+          <t>87,87; 93,34</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>88,49%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,73; 91,29</t>
+          <t>86,77; 93,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,85; 92,53</t>
+          <t>80,4; 90,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,6; 91,1</t>
+          <t>84,89; 91,2</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,36%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>87,8; 92,04</t>
+          <t>89,35; 93,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,89; 92,71</t>
+          <t>86,72; 91,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>88,89; 91,79</t>
+          <t>88,82; 92,09</t>
         </is>
       </c>
     </row>
